--- a/backened/public/audit-reports.xlsx
+++ b/backened/public/audit-reports.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Center Code</t>
   </si>
@@ -70,19 +70,31 @@
     <t>Raj Kumar</t>
   </si>
   <si>
+    <t>9.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>25/11/2025</t>
-  </si>
-  <si>
-    <t>{"FO1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP6":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""}}</t>
-  </si>
-  <si>
-    <t>Not Submitted</t>
-  </si>
-  <si>
-    <t/>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>{"FO1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":9,"remarks":""},"FO2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP6":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""}}</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>15/12/2025, 09:06:00</t>
+  </si>
+  <si>
+    <t>please check it my report</t>
   </si>
   <si>
     <t>CC002</t>
@@ -119,15 +131,6 @@
   </si>
   <si>
     <t>{"FO1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":9,"remarks":"50"},"FO2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"FO3":{"totalSamples":"50","samplesCompliant":"14","compliantPercent":28,"score":0,"remarks":"05"},"FO4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":12,"remarks":"50"},"FO5":{"totalSamples":"50","samplesCompliant":"40","compliantPercent":80,"score":2.4,"remarks":""},"DP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"DP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP3":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"DP4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":2,"remarks":"50"},"DP5":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP6":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4.5,"remarks":"0"},"PP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":10.5,"remarks":"05"},"MP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":0.75,"remarks":"50"},"MP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":3.75,"remarks":"50"},"MP3":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":5.25,"remarks":"50"},"MP4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4.5,"remarks":"50"},"MP5":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":0.75,"remarks":"50"}}</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Admin User</t>
   </si>
   <si>
     <t>20/11/2025, 09:42:03</t>
@@ -624,146 +627,146 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/backened/public/audit-reports.xlsx
+++ b/backened/public/audit-reports.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Center Code</t>
   </si>
@@ -70,73 +70,70 @@
     <t>Raj Kumar</t>
   </si>
   <si>
-    <t>9.00</t>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>32.50</t>
+  </si>
+  <si>
+    <t>13.88</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>72.63</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>{"FO1":{"totalSamples":"75","samplesCompliant":"63","compliantPercent":84,"score":6.75,"remarks":"veridsvl"},"FO2":{"totalSamples":"75","samplesCompliant":"75","compliantPercent":100,"score":6,"remarks":""},"FO3":{"totalSamples":"0","samplesCompliant":"0","compliantPercent":0,"score":0,"remarks":""},"FO4":{"totalSamples":"30","samplesCompliant":"15","compliantPercent":50,"score":3,"remarks":""},"FO5":{"totalSamples":"13","samplesCompliant":"13","compliantPercent":100,"score":3,"remarks":""},"DP1":{"totalSamples":"4","samplesCompliant":"2.5","compliantPercent":62.5,"score":3,"remarks":""},"DP2":{"totalSamples":"3","samplesCompliant":"2","compliantPercent":66.67,"score":2,"remarks":""},"DP3":{"totalSamples":"4","samplesCompliant":"3","compliantPercent":75,"score":4.5,"remarks":""},"DP4":{"totalSamples":"3","samplesCompliant":"2","compliantPercent":66.67,"score":1,"remarks":""},"DP5":{"totalSamples":"3","samplesCompliant":"3","compliantPercent":100,"score":4,"remarks":""},"DP6":{"totalSamples":"0","samplesCompliant":"0","compliantPercent":0,"score":0,"remarks":""},"DP7":{"totalSamples":"2","samplesCompliant":"2","compliantPercent":100,"score":4,"remarks":""},"DP8":{"totalSamples":"2","samplesCompliant":"2","compliantPercent":100,"score":2,"remarks":""},"DP9":{"totalSamples":"20","samplesCompliant":"20","compliantPercent":100,"score":4,"remarks":""},"DP10":{"totalSamples":"20","samplesCompliant":"20","compliantPercent":100,"score":4,"remarks":""},"DP11":{"totalSamples":"20","samplesCompliant":"20","compliantPercent":100,"score":4,"remarks":""},"PP1":{"totalSamples":"60","samplesCompliant":"60","compliantPercent":100,"score":2.25,"remarks":""},"PP2":{"totalSamples":"6","samplesCompliant":"3","compliantPercent":50,"score":0.38,"remarks":""},"PP3":{"totalSamples":"1","samplesCompliant":"1","compliantPercent":100,"score":2.25,"remarks":""},"PP4":{"totalSamples":"11","samplesCompliant":"11","compliantPercent":100,"score":9,"remarks":""},"MP1":{"totalSamples":"4","samplesCompliant":"4","compliantPercent":100,"score":0.75,"remarks":""},"MP2":{"totalSamples":"4","samplesCompliant":"4","compliantPercent":100,"score":3,"remarks":""},"MP3":{"totalSamples":"7","samplesCompliant":"1","compliantPercent":14.29,"score":0,"remarks":""},"MP4":{"totalSamples":"30","samplesCompliant":"18","compliantPercent":60,"score":2.25,"remarks":""},"MP5":{"totalSamples":"4","samplesCompliant":"4","compliantPercent":100,"score":1.5,"remarks":""},"_placementApplicable":"yes"}</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>15/12/2025, 15:48:04</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>CC002</t>
+  </si>
+  <si>
+    <t>NIIT Mumbai</t>
+  </si>
+  <si>
+    <t>Mumbai Br.</t>
+  </si>
+  <si>
+    <t>19.0760° N,72.8777°</t>
+  </si>
+  <si>
+    <t>Priya Singh</t>
+  </si>
+  <si>
+    <t>Suresh Patel</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>15/12/2025</t>
-  </si>
-  <si>
-    <t>{"FO1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":9,"remarks":""},"FO2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP6":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""}}</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>15/12/2025, 09:06:00</t>
-  </si>
-  <si>
-    <t>please check it my report</t>
-  </si>
-  <si>
-    <t>CC002</t>
-  </si>
-  <si>
-    <t>NIIT Mumbai</t>
-  </si>
-  <si>
-    <t>Mumbai Br.</t>
-  </si>
-  <si>
-    <t>19.0760° N,72.8777°</t>
-  </si>
-  <si>
-    <t>Priya Singh</t>
-  </si>
-  <si>
-    <t>Suresh Patel</t>
-  </si>
-  <si>
-    <t>29.40</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>85.40</t>
-  </si>
-  <si>
-    <t>19/11/2025</t>
-  </si>
-  <si>
-    <t>{"FO1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":9,"remarks":"50"},"FO2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"FO3":{"totalSamples":"50","samplesCompliant":"14","compliantPercent":28,"score":0,"remarks":"05"},"FO4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":12,"remarks":"50"},"FO5":{"totalSamples":"50","samplesCompliant":"40","compliantPercent":80,"score":2.4,"remarks":""},"DP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"DP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP3":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":6,"remarks":"50"},"DP4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":2,"remarks":"50"},"DP5":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP6":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4,"remarks":"50"},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4.5,"remarks":"0"},"PP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":10.5,"remarks":"05"},"MP1":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":0.75,"remarks":"50"},"MP2":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":3.75,"remarks":"50"},"MP3":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":5.25,"remarks":"50"},"MP4":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":4.5,"remarks":"50"},"MP5":{"totalSamples":"50","samplesCompliant":"50","compliantPercent":100,"score":0.75,"remarks":"50"}}</t>
-  </si>
-  <si>
-    <t>20/11/2025, 09:42:03</t>
-  </si>
-  <si>
-    <t>average</t>
+    <t>{"FO1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"FO5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP6":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"DP11":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"PP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"MP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0,"remarks":""},"_placementApplicable":"yes"}</t>
+  </si>
+  <si>
+    <t>Not Submitted</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>CC003</t>
@@ -155,18 +152,6 @@
   </si>
   <si>
     <t>Anita Desai</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>{"FO1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"FO2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"FO3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"FO4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"FO5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP6":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP7":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP8":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP9":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"DP10":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"PP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"PP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"MP1":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"MP2":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"MP3":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"MP4":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0},"MP5":{"totalSamples":"","samplesCompliant":"","compliantPercent":0,"score":0}}</t>
-  </si>
-  <si>
-    <t>Rejected: no</t>
-  </si>
-  <si>
-    <t>20/11/2025, 09:42:11</t>
   </si>
 </sst>
 </file>
@@ -630,143 +615,146 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
         <v>40</v>
       </c>
       <c r="R3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
